--- a/ProjectPlan_v0.1/Gantt/Project_Plan_Gantt.xlsx
+++ b/ProjectPlan_v0.1/Gantt/Project_Plan_Gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eltso\Desktop\τεχνολογια λογισμικου\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eltso\Documents\GitHub\UpSmartLib\ProjectPlan_v0.1\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4590206-2E81-4DD9-8FA5-8C94C102D4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6A914C-5FEB-474F-93E5-D808DAEFB675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1745,66 +1745,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="113" fillId="97" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="79" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="74" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="75" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="77" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="78" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="94" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="95" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="96" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="114" fillId="98" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1816,6 +1756,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="74" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="75" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="77" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="78" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="94" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="95" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="96" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2162,11 +2162,11 @@
   </sheetPr>
   <dimension ref="A1:BL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
@@ -2175,7 +2175,7 @@
     <col min="7" max="7" width="25.25" customWidth="1"/>
     <col min="10" max="10" width="6.5" customWidth="1"/>
     <col min="15" max="15" width="34.5" customWidth="1"/>
-    <col min="21" max="21" width="19.125" customWidth="1"/>
+    <col min="21" max="21" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="31.5" x14ac:dyDescent="0.5">
@@ -2186,201 +2186,201 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="93" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="115" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK2" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL2" s="113" t="s">
+      <c r="E2" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK2" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL2" s="93" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>37</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2604,17 +2604,17 @@
       <c r="D5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="98" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2627,20 +2627,20 @@
       <c r="D6" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="G6" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="102" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2653,23 +2653,23 @@
       <c r="D7" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="98" t="s">
+      <c r="K7" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="99" t="s">
+      <c r="L7" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="100" t="s">
+      <c r="M7" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="101" t="s">
+      <c r="N7" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="102" t="s">
+      <c r="O7" s="107" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2682,17 +2682,17 @@
       <c r="D8" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="103" t="s">
+      <c r="O8" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="104" t="s">
+      <c r="P8" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="105" t="s">
+      <c r="Q8" s="110" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2705,23 +2705,23 @@
       <c r="D9" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="106" t="s">
+      <c r="Q9" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="R9" s="107" t="s">
+      <c r="R9" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="108" t="s">
+      <c r="S9" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="T9" s="109" t="s">
+      <c r="T9" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="U9" s="110" t="s">
+      <c r="U9" s="115" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="D10" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="111" t="s">
+      <c r="U10" s="91" t="s">
         <v>56</v>
       </c>
     </row>

--- a/ProjectPlan_v0.1/Gantt/Project_Plan_Gantt.xlsx
+++ b/ProjectPlan_v0.1/Gantt/Project_Plan_Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eltso\Documents\GitHub\UpSmartLib\ProjectPlan_v0.1\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6A914C-5FEB-474F-93E5-D808DAEFB675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CFF18D-74BC-4747-91B9-FE17FAEC5A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
